--- a/src/Excel/MNQN.xlsx
+++ b/src/Excel/MNQN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22202"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1080" windowWidth="25600" windowHeight="14980" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1080" windowWidth="25600" windowHeight="14980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tre-PH" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="71">
   <si>
     <t>Thống kê kết nối internet của đơn vị</t>
   </si>
@@ -221,9 +221,6 @@
   </si>
   <si>
     <t>Học sinh</t>
-  </si>
-  <si>
-    <t>Tổng cộng</t>
   </si>
   <si>
     <t>Giáo viên</t>
@@ -245,7 +242,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -267,12 +264,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Times New Roman"/>
@@ -372,7 +363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -584,6 +575,155 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -604,7 +744,7 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,170 +755,6 @@
         <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -799,12 +775,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -838,21 +814,58 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -861,121 +874,77 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="12" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="2" builtinId="22"/>
@@ -1313,12 +1282,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
+    <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
@@ -1357,17 +1327,17 @@
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
@@ -1390,89 +1360,89 @@
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="2:16" ht="36" customHeight="1">
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="44" t="s">
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="46"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="38"/>
     </row>
     <row r="5" spans="2:16" ht="36" customHeight="1">
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="19" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="47" t="s">
+      <c r="J5" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="48" t="s">
+      <c r="P5" s="34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="36" customHeight="1">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="50"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="35"/>
     </row>
     <row r="7" spans="2:16" ht="36" customHeight="1">
       <c r="B7" s="7" t="s">
@@ -1485,13 +1455,13 @@
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="51"/>
+      <c r="J7" s="20"/>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-      <c r="P7" s="52"/>
+      <c r="P7" s="21"/>
     </row>
     <row r="8" spans="2:16" ht="36" customHeight="1">
       <c r="B8" s="7" t="s">
@@ -1504,16 +1474,23 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="55"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
     <mergeCell ref="E2:M2"/>
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="O5:O6"/>
@@ -1523,17 +1500,10 @@
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="F5:F6"/>
     <mergeCell ref="M5:M6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
     <mergeCell ref="K5:K6"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -1546,10 +1516,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:R10"/>
+  <dimension ref="B1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1581,19 +1551,19 @@
     <row r="2" spans="2:18" ht="22" customHeight="1" thickBot="1">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
     </row>
     <row r="3" spans="2:18" ht="22" customHeight="1" thickTop="1">
       <c r="C3" s="2"/>
@@ -1607,82 +1577,82 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="2:18" ht="22" customHeight="1">
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="68" t="s">
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="69" t="s">
+      <c r="L4" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="66"/>
-      <c r="N4" s="65" t="s">
+      <c r="M4" s="56"/>
+      <c r="N4" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="67"/>
-      <c r="P4" s="63" t="s">
+      <c r="O4" s="53"/>
+      <c r="P4" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="63" t="s">
+      <c r="Q4" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="70" t="s">
+      <c r="R4" s="54" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:18" ht="22" customHeight="1">
-      <c r="B5" s="71"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="73" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="73" t="s">
+      <c r="H5" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I5" s="73" t="s">
+      <c r="I5" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="73" t="s">
+      <c r="J5" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="71"/>
-      <c r="L5" s="74" t="s">
+      <c r="K5" s="47"/>
+      <c r="L5" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="74" t="s">
+      <c r="M5" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="75" t="s">
+      <c r="N5" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="O5" s="73" t="s">
+      <c r="O5" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="76"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="55"/>
     </row>
     <row r="6" spans="2:18" ht="22" customHeight="1">
       <c r="B6" s="11" t="s">
@@ -1703,7 +1673,7 @@
       <c r="O6" s="10"/>
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
-      <c r="R6" s="41"/>
+      <c r="R6" s="18"/>
     </row>
     <row r="7" spans="2:18" ht="22" customHeight="1">
       <c r="B7" s="11" t="s">
@@ -1724,11 +1694,11 @@
       <c r="O7" s="10"/>
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
-      <c r="R7" s="41"/>
+      <c r="R7" s="18"/>
     </row>
     <row r="8" spans="2:18" ht="22" customHeight="1">
-      <c r="B8" s="16" t="s">
-        <v>67</v>
+      <c r="B8" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -1738,18 +1708,18 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
-      <c r="R8" s="42"/>
+      <c r="R8" s="19"/>
     </row>
     <row r="9" spans="2:18" ht="22" customHeight="1">
-      <c r="B9" s="16" t="s">
-        <v>68</v>
+      <c r="B9" s="15" t="s">
+        <v>67</v>
       </c>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -1759,49 +1729,28 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
       <c r="O9" s="14"/>
       <c r="P9" s="14"/>
       <c r="Q9" s="14"/>
-      <c r="R9" s="42"/>
-    </row>
-    <row r="10" spans="2:18" ht="22" customHeight="1">
-      <c r="B10" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="43"/>
+      <c r="R9" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E2:O2"/>
-    <mergeCell ref="N4:O4"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="F4:J4"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E2:O2"/>
+    <mergeCell ref="N4:O4"/>
     <mergeCell ref="E4:E5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1823,7 +1772,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
@@ -1833,34 +1782,34 @@
   <sheetData>
     <row r="1" spans="2:11" ht="22" customHeight="1"/>
     <row r="2" spans="2:11" ht="22" customHeight="1" thickBot="1">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="2:11" ht="22" customHeight="1" thickTop="1"/>
     <row r="4" spans="2:11" ht="37" customHeight="1">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="21"/>
+      <c r="E4" s="43"/>
     </row>
     <row r="5" spans="2:11" ht="22" customHeight="1">
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
       <c r="D5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="17" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1871,7 +1820,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="6"/>
-      <c r="K6" s="60"/>
+      <c r="K6" s="26"/>
     </row>
     <row r="7" spans="2:11" ht="22" customHeight="1">
       <c r="B7" s="3" t="s">
@@ -1908,10 +1857,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N9"/>
+  <dimension ref="B1:N8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -1934,17 +1883,17 @@
     </row>
     <row r="2" spans="2:14" ht="22" customHeight="1">
       <c r="C2" s="2"/>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
@@ -1956,56 +1905,56 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="2:14" ht="22" customHeight="1">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="33" t="s">
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="66" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="22" customHeight="1">
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="29" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="29" t="s">
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="23"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="40"/>
     </row>
     <row r="6" spans="2:14" ht="14">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
       <c r="F6" s="5" t="s">
         <v>60</v>
       </c>
@@ -2030,7 +1979,7 @@
       <c r="M6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="20"/>
+      <c r="N6" s="33"/>
     </row>
     <row r="7" spans="2:14" ht="14">
       <c r="B7" s="6">
@@ -2070,27 +2019,10 @@
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
     </row>
-    <row r="9" spans="2:14" ht="22" customHeight="1">
-      <c r="B9" s="6">
-        <v>3</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-    </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="F5:I5"/>
     <mergeCell ref="D2:L2"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
@@ -2098,8 +2030,6 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="F4:M4"/>
-    <mergeCell ref="N4:N6"/>
-    <mergeCell ref="F5:I5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -2128,40 +2058,40 @@
   <sheetData>
     <row r="1" spans="2:14" ht="22" customHeight="1"/>
     <row r="2" spans="2:14" ht="22" customHeight="1">
-      <c r="D2" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="58"/>
+      <c r="D2" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="72"/>
     </row>
     <row r="3" spans="2:14" ht="22" customHeight="1"/>
     <row r="4" spans="2:14" ht="22" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="21"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="43"/>
       <c r="N4" s="5" t="s">
         <v>29</v>
       </c>
@@ -2170,85 +2100,85 @@
       <c r="B5" s="6">
         <v>1</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="21"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="43"/>
       <c r="N5" s="6"/>
     </row>
     <row r="6" spans="2:14" ht="22" customHeight="1">
       <c r="B6" s="6">
         <v>2</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="21"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="43"/>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="2:14" ht="22" customHeight="1">
       <c r="B7" s="6">
         <v>3</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="21"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="43"/>
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="2:14" ht="22" customHeight="1">
       <c r="B8" s="6">
         <v>4</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="21"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="43"/>
       <c r="N8" s="6"/>
     </row>
     <row r="9" spans="2:14" ht="22" customHeight="1">
       <c r="B9" s="6">
         <v>5</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="21"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="43"/>
       <c r="N9" s="6"/>
     </row>
   </sheetData>
